--- a/Doc/WIP/G-PROJ-ALL01-FeuilleEvaluationProjets-ordo2020-V12.0.xlsx
+++ b/Doc/WIP/G-PROJ-ALL01-FeuilleEvaluationProjets-ordo2020-V12.0.xlsx
@@ -1315,140 +1315,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1484,6 +1380,12 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1496,9 +1398,107 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1810,8 +1810,8 @@
   </sheetPr>
   <dimension ref="B1:X85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:M20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" zeroHeight="1"/>
@@ -1853,11 +1853,11 @@
       <c r="N2" s="6"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="106" t="s">
+      <c r="Q2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="2:24" ht="37.5" customHeight="1">
@@ -1941,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="75"/>
-      <c r="P5" s="154">
+      <c r="P5" s="93">
         <v>45279</v>
       </c>
       <c r="Q5" s="75"/>
@@ -1986,39 +1986,39 @@
     <row r="8" spans="2:24" s="45" customFormat="1" ht="70.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B8" s="44"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="107" t="s">
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="107" t="s">
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="107" t="s">
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="107" t="s">
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="108"/>
+      <c r="S8" s="102"/>
       <c r="T8" s="47"/>
       <c r="X8" s="83"/>
     </row>
     <row r="9" spans="2:24" ht="100.15" customHeight="1" thickTop="1">
       <c r="B9" s="8"/>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="133" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="48" t="s">
@@ -2027,156 +2027,156 @@
       <c r="F9" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="98"/>
+      <c r="H9" s="126"/>
       <c r="I9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="129" t="s">
+      <c r="J9" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="130"/>
+      <c r="K9" s="140"/>
       <c r="L9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="152" t="s">
+      <c r="M9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="153"/>
+      <c r="N9" s="120"/>
       <c r="O9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="97" t="s">
+      <c r="P9" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="110"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="144"/>
       <c r="T9" s="13"/>
     </row>
     <row r="10" spans="2:24" ht="100.15" customHeight="1">
       <c r="B10" s="8"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="118"/>
+      <c r="H10" s="136"/>
       <c r="I10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="96"/>
+      <c r="K10" s="124"/>
       <c r="L10" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="150" t="s">
+      <c r="M10" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="151"/>
+      <c r="N10" s="118"/>
       <c r="O10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="146"/>
       <c r="T10" s="13"/>
     </row>
     <row r="11" spans="2:24" ht="100.15" customHeight="1">
       <c r="B11" s="8"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="88" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="138"/>
       <c r="I11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="127" t="s">
+      <c r="J11" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="128"/>
+      <c r="K11" s="138"/>
       <c r="L11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="131" t="s">
+      <c r="M11" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="132"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="133" t="s">
+      <c r="P11" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="136"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="99"/>
       <c r="T11" s="13"/>
     </row>
     <row r="12" spans="2:24" ht="100.15" customHeight="1" thickBot="1">
       <c r="B12" s="8"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="126"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="94"/>
+      <c r="K12" s="116"/>
       <c r="L12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="93" t="s">
+      <c r="M12" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="94"/>
+      <c r="N12" s="116"/>
       <c r="O12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="93" t="s">
+      <c r="P12" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="114"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="148"/>
       <c r="T12" s="13"/>
     </row>
     <row r="13" spans="2:24" ht="100.15" customHeight="1" thickTop="1">
       <c r="B13" s="8"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="119" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="50" t="s">
@@ -2185,116 +2185,116 @@
       <c r="F13" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="98"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="97" t="s">
+      <c r="J13" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="98"/>
+      <c r="K13" s="126"/>
       <c r="L13" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="98"/>
+      <c r="N13" s="126"/>
       <c r="O13" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="97" t="s">
+      <c r="P13" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="110"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="144"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="2:24" ht="100.15" customHeight="1">
       <c r="B14" s="8"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="120"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="51" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="118"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="117" t="s">
+      <c r="J14" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="118"/>
+      <c r="K14" s="136"/>
       <c r="L14" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="95" t="s">
+      <c r="M14" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="96"/>
+      <c r="N14" s="124"/>
       <c r="O14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="95" t="s">
+      <c r="P14" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="112"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="146"/>
       <c r="T14" s="13"/>
     </row>
     <row r="15" spans="2:24" ht="100.15" customHeight="1" thickBot="1">
       <c r="B15" s="8"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="121"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="52" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="100"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="100"/>
+      <c r="K15" s="152"/>
       <c r="L15" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="94"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="93" t="s">
+      <c r="P15" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="114"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="148"/>
       <c r="T15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="100.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="8"/>
-      <c r="C16" s="124"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="89" t="s">
         <v>51</v>
       </c>
@@ -2304,33 +2304,33 @@
       <c r="F16" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="102"/>
+      <c r="H16" s="154"/>
       <c r="I16" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="104"/>
+      <c r="K16" s="122"/>
       <c r="L16" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="103" t="s">
+      <c r="M16" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="104"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="103" t="s">
+      <c r="P16" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="150"/>
       <c r="T16" s="13"/>
     </row>
     <row r="17" spans="2:20" ht="4.9000000000000004" customHeight="1">
@@ -2355,7 +2355,7 @@
       <c r="P18" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Q18" s="105" t="s">
+      <c r="Q18" s="141" t="s">
         <v>60</v>
       </c>
       <c r="R18" s="59"/>
@@ -2371,7 +2371,7 @@
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56"/>
-      <c r="Q19" s="105"/>
+      <c r="Q19" s="141"/>
       <c r="R19" s="59"/>
       <c r="S19" s="59"/>
       <c r="T19" s="13"/>
@@ -2386,14 +2386,14 @@
       <c r="H20" s="85"/>
       <c r="I20" s="85"/>
       <c r="J20" s="85"/>
-      <c r="L20" s="139" t="s">
+      <c r="L20" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="139"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="73"/>
       <c r="O20" s="74"/>
       <c r="P20" s="74"/>
-      <c r="Q20" s="105"/>
+      <c r="Q20" s="141"/>
       <c r="R20" s="59"/>
       <c r="S20" s="59"/>
       <c r="T20" s="13"/>
@@ -2428,10 +2428,10 @@
       <c r="H22" s="85"/>
       <c r="I22" s="85"/>
       <c r="J22" s="85"/>
-      <c r="L22" s="138" t="s">
+      <c r="L22" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="138"/>
+      <c r="M22" s="103"/>
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
       <c r="P22" s="74"/>
@@ -2474,15 +2474,15 @@
       <c r="M24" s="67"/>
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
-      <c r="P24" s="140" t="s">
+      <c r="P24" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="141" t="str">
+      <c r="Q24" s="106" t="str">
         <f>IF(COUNT(S9:S16)=8,MROUND(SUM(S9:S16)/SUM(R9:R16),0.5),"")</f>
         <v/>
       </c>
-      <c r="R24" s="142"/>
-      <c r="S24" s="143"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="108"/>
       <c r="T24" s="13"/>
     </row>
     <row r="25" spans="2:20" ht="30" customHeight="1">
@@ -2500,10 +2500,10 @@
       <c r="M25" s="55"/>
       <c r="N25" s="55"/>
       <c r="O25" s="55"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="146"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="111"/>
       <c r="T25" s="13"/>
     </row>
     <row r="26" spans="2:20" ht="28.5" customHeight="1">
@@ -2521,10 +2521,10 @@
       <c r="M26" s="67"/>
       <c r="N26" s="56"/>
       <c r="O26" s="66"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="146"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="111"/>
       <c r="T26" s="13"/>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1">
@@ -2542,10 +2542,10 @@
       <c r="M27" s="56"/>
       <c r="N27" s="56"/>
       <c r="O27" s="66"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="146"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="111"/>
       <c r="T27" s="13"/>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1">
@@ -2563,10 +2563,10 @@
       <c r="M28" s="56"/>
       <c r="N28" s="56"/>
       <c r="O28" s="66"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="149"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="114"/>
       <c r="T28" s="13"/>
     </row>
     <row r="29" spans="2:20" ht="9.75" hidden="1" customHeight="1" thickBot="1">
@@ -2656,14 +2656,14 @@
     <row r="43" spans="2:20"/>
     <row r="44" spans="2:20"/>
     <row r="45" spans="2:20">
-      <c r="M45" s="137"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:20"/>
     <row r="48" spans="2:20"/>
@@ -2706,6 +2706,45 @@
     <row r="85"/>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
@@ -2722,45 +2761,6 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2778,26 +2778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -3020,32 +3000,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{891E5F7B-C838-4741-AB52-88EF31B765A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9BC66A-C2DB-4D13-83D3-A9D6FE547EA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C21CA9F7-DB4D-47B5-B633-073144095A15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3062,4 +3037,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9BC66A-C2DB-4D13-83D3-A9D6FE547EA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{891E5F7B-C838-4741-AB52-88EF31B765A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>